--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1656303.730671131</v>
+        <v>1653622.320018598</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2881100.704896096</v>
+        <v>2881100.704896094</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4715399.674601324</v>
+        <v>4715399.674601325</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8125930.478954884</v>
+        <v>8125930.478954882</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.9632537723228</v>
       </c>
       <c r="D2" t="n">
-        <v>212.1398730226975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>97.61153143263806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>66.0314987001008</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>368.8630820641483</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>30.50251218097857</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.7535642479278</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>212.0020795930056</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>43.56614992953122</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>346.4071178820195</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.08885759131792</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>38.05758018068322</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1390,7 +1390,7 @@
         <v>318.3176568687902</v>
       </c>
       <c r="I11" t="n">
-        <v>127.4501971105622</v>
+        <v>127.4501971105623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.12819665185064</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>118.7273256616609</v>
       </c>
       <c r="H12" t="n">
-        <v>86.14062302488001</v>
+        <v>86.14062302488003</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35229116545471</v>
+        <v>44.35229116545472</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.48886960815829</v>
+        <v>15.48886960815831</v>
       </c>
       <c r="S12" t="n">
         <v>131.1314955077976</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.9406481689638</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>128.438172086704</v>
       </c>
       <c r="J13" t="n">
-        <v>22.25679452515965</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>117.6900996594426</v>
       </c>
       <c r="S13" t="n">
-        <v>198.8608923274312</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.8894020508675</v>
+        <v>200.1833868182778</v>
       </c>
       <c r="U13" t="n">
-        <v>139.1335739189165</v>
+        <v>282.5783724456766</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.7846186869749</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.7671287247049</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.12819665185061</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>159.2310895204677</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>186.954189998798</v>
+        <v>220.1865020871814</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1754815281552</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.4609377894556</v>
@@ -1785,7 +1785,7 @@
         <v>152.9406481689638</v>
       </c>
       <c r="I16" t="n">
-        <v>78.53482437905272</v>
+        <v>128.438172086704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>117.6900996594426</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.8894020508675</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.724523182948076</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1855,7 +1855,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>408.4370085807678</v>
+        <v>381.7954235957666</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1473000347972</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>89.09666197236548</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4814300004674</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>317.6735696595421</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>222.2172295452414</v>
       </c>
       <c r="H20" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.786554340597849</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S21" t="n">
         <v>127.6305556124798</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>119.1064492346774</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.263405521906013</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>296.7509906442048</v>
       </c>
       <c r="H23" t="n">
-        <v>203.7460237994836</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>138.3566509204213</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.99795536377295</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>11.94721032648579</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>46.27718246062284</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>89.68177698255755</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.7093841631053</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2803,16 +2803,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>67.0854382126313</v>
+        <v>89.15926668032083</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.8204090430228</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>66.5200182031099</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>187.5703906301036</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>205.049680027018</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.50712379173034</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>38.91286352692094</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3280,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>265.8609038980186</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>205.049680027018</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.62162842023747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>107.7731453049669</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>408.4323500200001</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>112.6410142835435</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>199.3429585415155</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -3669,13 +3669,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>87.67088625309484</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.65774277076322</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>376.7215735696944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>373.3711665419578</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>9.599085922289049</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -3915,10 +3915,10 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.93313188467417</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3988,10 +3988,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>405.9223271425819</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>124.7191819833627</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,31 +4134,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>21.73531720617069</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>1.263405521906013</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.65655633099</v>
+        <v>1143.793618063317</v>
       </c>
       <c r="C2" t="n">
-        <v>1956.65655633099</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D2" t="n">
-        <v>1742.373856308063</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G2" t="n">
         <v>509.7331374425881</v>
@@ -4339,43 +4339,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1577.42141205333</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362702</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362702</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W2" t="n">
-        <v>1956.65655633099</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.65655633099</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="Y2" t="n">
-        <v>1956.65655633099</v>
+        <v>1544.288363774714</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195844</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4436,16 +4436,16 @@
         <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="F4" t="n">
         <v>47.31297010154361</v>
@@ -4524,16 +4524,16 @@
         <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>397.3418557058213</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W4" t="n">
-        <v>114.011453636999</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1652.542660748986</v>
+        <v>1004.199687125698</v>
       </c>
       <c r="C5" t="n">
-        <v>1652.542660748986</v>
+        <v>611.0241856286286</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>225.5830568452964</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>225.5830568452964</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V5" t="n">
-        <v>2023.541695780699</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.542660748986</v>
+        <v>1790.14300127204</v>
       </c>
       <c r="X5" t="n">
-        <v>1652.542660748986</v>
+        <v>1400.690396205097</v>
       </c>
       <c r="Y5" t="n">
-        <v>1652.542660748986</v>
+        <v>1004.199687125698</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.492043226187</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N6" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
         <v>1725.662044805892</v>
@@ -4752,19 +4752,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>745.9439088256454</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V7" t="n">
-        <v>479.9645636464696</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W7" t="n">
-        <v>215.5670240020981</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X7" t="n">
         <v>215.5670240020981</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1665.394817750351</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2321.642293027149</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2065.889563461747</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2065.889563461747</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W8" t="n">
-        <v>2065.889563461747</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.889563461747</v>
+        <v>1811.235856624945</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.889563461747</v>
+        <v>1414.745147545546</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565964</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631986</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2529.096655468761</v>
+        <v>2182.097526867937</v>
       </c>
       <c r="C11" t="n">
-        <v>2135.921153971692</v>
+        <v>1788.922025370868</v>
       </c>
       <c r="D11" t="n">
         <v>1750.480025188359</v>
@@ -5038,13 +5038,13 @@
         <v>196.5553188492603</v>
       </c>
       <c r="I11" t="n">
-        <v>67.8177460103085</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J11" t="n">
         <v>233.1804634040195</v>
       </c>
       <c r="K11" t="n">
-        <v>623.2061539373673</v>
+        <v>623.2061539373672</v>
       </c>
       <c r="L11" t="n">
         <v>1155.038447149858</v>
@@ -5059,34 +5059,34 @@
         <v>2796.406364865011</v>
       </c>
       <c r="P11" t="n">
-        <v>3179.687714733546</v>
+        <v>3179.687714733545</v>
       </c>
       <c r="Q11" t="n">
-        <v>3390.887300515425</v>
+        <v>3390.887300515424</v>
       </c>
       <c r="R11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="S11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="U11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="V11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="W11" t="n">
-        <v>3390.887300515425</v>
+        <v>3368.535586725676</v>
       </c>
       <c r="X11" t="n">
-        <v>3001.434695448481</v>
+        <v>2979.082981658733</v>
       </c>
       <c r="Y11" t="n">
-        <v>2604.943986369082</v>
+        <v>2582.592272579334</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>861.1768568468332</v>
+        <v>861.1768568468333</v>
       </c>
       <c r="C12" t="n">
-        <v>710.5226264069254</v>
+        <v>710.5226264069255</v>
       </c>
       <c r="D12" t="n">
-        <v>580.4336590284057</v>
+        <v>580.4336590284058</v>
       </c>
       <c r="E12" t="n">
-        <v>443.9871681392934</v>
+        <v>443.9871681392935</v>
       </c>
       <c r="F12" t="n">
-        <v>319.5553620224252</v>
+        <v>319.5553620224253</v>
       </c>
       <c r="G12" t="n">
-        <v>199.62877044499</v>
+        <v>199.6287704449901</v>
       </c>
       <c r="H12" t="n">
         <v>112.6180401168284</v>
       </c>
       <c r="I12" t="n">
-        <v>67.8177460103085</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J12" t="n">
-        <v>67.8177460103085</v>
+        <v>193.2692160673569</v>
       </c>
       <c r="K12" t="n">
-        <v>408.6419147133896</v>
+        <v>534.093384770438</v>
       </c>
       <c r="L12" t="n">
-        <v>408.6419147133896</v>
+        <v>1046.010885662789</v>
       </c>
       <c r="M12" t="n">
-        <v>1069.49832838826</v>
+        <v>1046.010885662789</v>
       </c>
       <c r="N12" t="n">
-        <v>1390.711380575403</v>
+        <v>1139.678486132188</v>
       </c>
       <c r="O12" t="n">
-        <v>1938.298812124703</v>
+        <v>1687.265917681488</v>
       </c>
       <c r="P12" t="n">
-        <v>2368.854306808385</v>
+        <v>2117.821412365171</v>
       </c>
       <c r="Q12" t="n">
         <v>2368.854306808385</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="C13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="D13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="E13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="F13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="G13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="H13" t="n">
-        <v>220.0348840020899</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="I13" t="n">
-        <v>90.29935664178289</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="J13" t="n">
-        <v>67.8177460103085</v>
+        <v>67.81774601030848</v>
       </c>
       <c r="K13" t="n">
         <v>162.3711894224268</v>
       </c>
       <c r="L13" t="n">
-        <v>342.7740054503575</v>
+        <v>342.7740054503574</v>
       </c>
       <c r="M13" t="n">
         <v>546.2254750950713</v>
@@ -5214,7 +5214,7 @@
         <v>746.1669765717058</v>
       </c>
       <c r="O13" t="n">
-        <v>924.3448045675798</v>
+        <v>924.3448045675797</v>
       </c>
       <c r="P13" t="n">
         <v>1057.460847044327</v>
@@ -5223,28 +5223,28 @@
         <v>1070.049647765344</v>
       </c>
       <c r="R13" t="n">
-        <v>951.1707592204526</v>
+        <v>951.1707592204524</v>
       </c>
       <c r="S13" t="n">
-        <v>750.3011710109262</v>
+        <v>951.1707592204524</v>
       </c>
       <c r="T13" t="n">
-        <v>515.0593507575246</v>
+        <v>748.9653179898687</v>
       </c>
       <c r="U13" t="n">
-        <v>374.5203872030635</v>
+        <v>463.5326185497913</v>
       </c>
       <c r="V13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="W13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="X13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="Y13" t="n">
-        <v>374.5203872030635</v>
+        <v>197.5532733706155</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>863.5767723908334</v>
+        <v>1982.038632488815</v>
       </c>
       <c r="C14" t="n">
-        <v>470.401270893764</v>
+        <v>1588.863130991746</v>
       </c>
       <c r="D14" t="n">
-        <v>470.401270893764</v>
+        <v>1588.863130991746</v>
       </c>
       <c r="E14" t="n">
-        <v>67.81774601030848</v>
+        <v>1186.27960610829</v>
       </c>
       <c r="F14" t="n">
-        <v>67.81774601030848</v>
+        <v>769.3851676382679</v>
       </c>
       <c r="G14" t="n">
-        <v>67.81774601030848</v>
+        <v>356.4714113887983</v>
       </c>
       <c r="H14" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I14" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J14" t="n">
         <v>233.1804634040195</v>
       </c>
       <c r="K14" t="n">
-        <v>623.2061539373672</v>
+        <v>623.2061539373673</v>
       </c>
       <c r="L14" t="n">
         <v>1155.038447149858</v>
@@ -5296,34 +5296,34 @@
         <v>2796.406364865011</v>
       </c>
       <c r="P14" t="n">
-        <v>3179.687714733545</v>
+        <v>3179.687714733546</v>
       </c>
       <c r="Q14" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="R14" t="n">
-        <v>3368.535586725676</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="S14" t="n">
-        <v>3207.696102361568</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="T14" t="n">
-        <v>3018.853486201166</v>
+        <v>3168.476692346555</v>
       </c>
       <c r="U14" t="n">
-        <v>2763.120676576767</v>
+        <v>3168.476692346555</v>
       </c>
       <c r="V14" t="n">
-        <v>2421.013867280285</v>
+        <v>3168.476692346555</v>
       </c>
       <c r="W14" t="n">
-        <v>2050.014832248572</v>
+        <v>3168.476692346555</v>
       </c>
       <c r="X14" t="n">
-        <v>1660.562227181629</v>
+        <v>2779.024087279611</v>
       </c>
       <c r="Y14" t="n">
-        <v>1264.07151810223</v>
+        <v>2382.533378200212</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1883.209850553871</v>
+        <v>861.1768568468332</v>
       </c>
       <c r="C15" t="n">
-        <v>1732.555620113963</v>
+        <v>710.5226264069254</v>
       </c>
       <c r="D15" t="n">
-        <v>1602.466652735444</v>
+        <v>580.4336590284057</v>
       </c>
       <c r="E15" t="n">
-        <v>1466.020161846332</v>
+        <v>443.9871681392934</v>
       </c>
       <c r="F15" t="n">
-        <v>1341.588355729463</v>
+        <v>319.5553620224252</v>
       </c>
       <c r="G15" t="n">
-        <v>1221.661764152028</v>
+        <v>199.62877044499</v>
       </c>
       <c r="H15" t="n">
-        <v>1134.651033823867</v>
+        <v>112.6180401168284</v>
       </c>
       <c r="I15" t="n">
-        <v>1089.850739717347</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J15" t="n">
-        <v>1215.302209774395</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K15" t="n">
-        <v>1215.302209774395</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="L15" t="n">
-        <v>1727.219710666747</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="M15" t="n">
-        <v>2161.711479839227</v>
+        <v>728.6741596851787</v>
       </c>
       <c r="N15" t="n">
-        <v>2161.711479839227</v>
+        <v>1418.412550201494</v>
       </c>
       <c r="O15" t="n">
-        <v>2709.298911388527</v>
+        <v>1965.999981750795</v>
       </c>
       <c r="P15" t="n">
-        <v>3139.854406072209</v>
+        <v>2368.854306808385</v>
       </c>
       <c r="Q15" t="n">
-        <v>3390.887300515424</v>
+        <v>2368.854306808385</v>
       </c>
       <c r="R15" t="n">
-        <v>3375.241977678901</v>
+        <v>2353.208983971862</v>
       </c>
       <c r="S15" t="n">
-        <v>3242.785921610418</v>
+        <v>2220.75292790338</v>
       </c>
       <c r="T15" t="n">
-        <v>3066.339105494825</v>
+        <v>2044.306111787786</v>
       </c>
       <c r="U15" t="n">
-        <v>2856.28472706496</v>
+        <v>1834.251733357922</v>
       </c>
       <c r="V15" t="n">
-        <v>2633.744725436027</v>
+        <v>1611.711731728989</v>
       </c>
       <c r="W15" t="n">
-        <v>2403.627479569314</v>
+        <v>1381.594485862276</v>
       </c>
       <c r="X15" t="n">
-        <v>2214.320401919325</v>
+        <v>1192.287408212287</v>
       </c>
       <c r="Y15" t="n">
-        <v>2035.006184994833</v>
+        <v>1012.973191287795</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="C16" t="n">
-        <v>780.9656412864418</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="D16" t="n">
-        <v>625.3325281889565</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="E16" t="n">
-        <v>469.773716048159</v>
+        <v>677.5070727621066</v>
       </c>
       <c r="F16" t="n">
-        <v>469.773716048159</v>
+        <v>520.1811379750795</v>
       </c>
       <c r="G16" t="n">
-        <v>301.6313546446686</v>
+        <v>352.038776571589</v>
       </c>
       <c r="H16" t="n">
-        <v>147.1458514436951</v>
+        <v>197.5532733706155</v>
       </c>
       <c r="I16" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J16" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K16" t="n">
         <v>162.3711894224268</v>
       </c>
       <c r="L16" t="n">
-        <v>342.7740054503574</v>
+        <v>342.7740054503575</v>
       </c>
       <c r="M16" t="n">
         <v>546.2254750950713</v>
@@ -5460,28 +5460,28 @@
         <v>1070.049647765344</v>
       </c>
       <c r="R16" t="n">
-        <v>951.1707592204526</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="S16" t="n">
-        <v>951.1707592204526</v>
+        <v>1070.049647765344</v>
       </c>
       <c r="T16" t="n">
-        <v>951.1707592204526</v>
+        <v>834.8078275119426</v>
       </c>
       <c r="U16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="V16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="W16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="X16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.1707592204526</v>
+        <v>833.0658849029041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1669.724021641789</v>
+        <v>1642.813329737748</v>
       </c>
       <c r="C17" t="n">
-        <v>1276.54852014472</v>
+        <v>1249.637828240678</v>
       </c>
       <c r="D17" t="n">
-        <v>891.1073913613875</v>
+        <v>864.1966994573459</v>
       </c>
       <c r="E17" t="n">
-        <v>488.523866477932</v>
+        <v>461.6131745738904</v>
       </c>
       <c r="F17" t="n">
         <v>75.96123154786345</v>
@@ -5515,7 +5515,7 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J17" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K17" t="n">
         <v>705.3108151130497</v>
@@ -5527,40 +5527,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N17" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O17" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P17" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q17" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R17" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S17" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T17" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U17" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="V17" t="n">
-        <v>2826.666370819844</v>
+        <v>3200.250424627199</v>
       </c>
       <c r="W17" t="n">
-        <v>2455.667335788131</v>
+        <v>2829.251389595487</v>
       </c>
       <c r="X17" t="n">
-        <v>2066.214730721188</v>
+        <v>2439.798784528543</v>
       </c>
       <c r="Y17" t="n">
-        <v>1669.724021641789</v>
+        <v>2043.308075449145</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K18" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L18" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.529170671759</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N18" t="n">
-        <v>2074.797953750985</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O18" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P18" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q18" t="n">
         <v>2352.277072610002</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.845978475688</v>
+        <v>414.1490991715032</v>
       </c>
       <c r="C19" t="n">
-        <v>388.845978475688</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="D19" t="n">
-        <v>388.845978475688</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="E19" t="n">
-        <v>233.2871663348905</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="F19" t="n">
-        <v>75.96123154786345</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G19" t="n">
         <v>75.96123154786345</v>
@@ -5700,25 +5700,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S19" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T19" t="n">
-        <v>1222.217555045145</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="U19" t="n">
-        <v>1222.217555045145</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="V19" t="n">
-        <v>956.2382098659697</v>
+        <v>414.1490991715032</v>
       </c>
       <c r="W19" t="n">
-        <v>956.2382098659697</v>
+        <v>414.1490991715032</v>
       </c>
       <c r="X19" t="n">
-        <v>797.166058350346</v>
+        <v>414.1490991715032</v>
       </c>
       <c r="Y19" t="n">
-        <v>574.0539971669893</v>
+        <v>414.1490991715032</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1895.932654431597</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C20" t="n">
-        <v>1502.757152934528</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D20" t="n">
-        <v>1117.316024151195</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E20" t="n">
-        <v>714.7324992677397</v>
+        <v>717.3175180433821</v>
       </c>
       <c r="F20" t="n">
-        <v>393.8501056722426</v>
+        <v>300.4230795733598</v>
       </c>
       <c r="G20" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H20" t="n">
         <v>75.96123154786345</v>
@@ -5752,10 +5752,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J20" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K20" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L20" t="n">
         <v>1292.177839612517</v>
@@ -5764,40 +5764,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N20" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O20" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P20" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q20" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R20" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S20" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T20" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U20" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V20" t="n">
-        <v>3082.370714289336</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W20" t="n">
-        <v>3082.370714289336</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X20" t="n">
-        <v>2692.918109222393</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y20" t="n">
-        <v>2296.427400142994</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J21" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K21" t="n">
-        <v>194.7409084487394</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L21" t="n">
-        <v>747.1733772802952</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M21" t="n">
-        <v>747.1733772802952</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N21" t="n">
-        <v>1485.442160359521</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O21" t="n">
-        <v>2077.425419922113</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q21" t="n">
         <v>2352.277072610002</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.73336916</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C22" t="n">
-        <v>865.5282512259889</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D22" t="n">
-        <v>709.8951381285037</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E22" t="n">
-        <v>554.3363259877062</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F22" t="n">
-        <v>397.0103912006792</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G22" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H22" t="n">
         <v>75.96123154786345</v>
@@ -5913,16 +5913,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K22" t="n">
-        <v>188.6896288950474</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L22" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M22" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N22" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O22" t="n">
         <v>1044.49322140544</v>
@@ -5931,31 +5931,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T22" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U22" t="n">
-        <v>1222.217555045145</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V22" t="n">
-        <v>1222.217555045145</v>
+        <v>816.4840170170594</v>
       </c>
       <c r="W22" t="n">
-        <v>1222.217555045145</v>
+        <v>533.153614948237</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.217555045145</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y22" t="n">
-        <v>1220.941387851301</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1490.082251685443</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C23" t="n">
-        <v>1096.906750188373</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="D23" t="n">
-        <v>1096.906750188373</v>
+        <v>1513.076544423907</v>
       </c>
       <c r="E23" t="n">
-        <v>694.3232253049177</v>
+        <v>1110.493019540452</v>
       </c>
       <c r="F23" t="n">
-        <v>694.3232253049177</v>
+        <v>693.5985810704293</v>
       </c>
       <c r="G23" t="n">
-        <v>281.7652959917863</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H23" t="n">
         <v>75.96123154786345</v>
@@ -5992,7 +5992,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6001,40 +6001,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U23" t="n">
-        <v>3389.626155871376</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.519346574894</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W23" t="n">
-        <v>2676.520311543182</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X23" t="n">
-        <v>2287.067706476239</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y23" t="n">
-        <v>1890.57699739684</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6153,13 +6153,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
         <v>1044.49322140544</v>
@@ -6168,28 +6168,28 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>677.8675552895655</v>
+        <v>1082.463362196235</v>
       </c>
       <c r="U25" t="n">
-        <v>392.4435619429715</v>
+        <v>1082.463362196235</v>
       </c>
       <c r="V25" t="n">
-        <v>126.4642167637957</v>
+        <v>816.4840170170594</v>
       </c>
       <c r="W25" t="n">
-        <v>126.4642167637957</v>
+        <v>533.153614948237</v>
       </c>
       <c r="X25" t="n">
-        <v>126.4642167637957</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y25" t="n">
         <v>75.96123154786345</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.229275930393</v>
+        <v>2001.919103735798</v>
       </c>
       <c r="C26" t="n">
-        <v>876.0537744333237</v>
+        <v>1608.743602238729</v>
       </c>
       <c r="D26" t="n">
-        <v>490.6126456499915</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="E26" t="n">
-        <v>88.02912076653598</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F26" t="n">
-        <v>75.96123154786346</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G26" t="n">
-        <v>75.96123154786346</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6253,25 +6253,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585819</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116326</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819845</v>
+        <v>3235.101792341641</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788132</v>
+        <v>3188.357163593537</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721189</v>
+        <v>2798.904558526594</v>
       </c>
       <c r="Y26" t="n">
-        <v>1669.72402164179</v>
+        <v>2402.413849447195</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2306.520858014191</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C27" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D27" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E27" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>1764.899363189783</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G27" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H27" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>1521.745736331034</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>1521.745736331034</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K27" t="n">
-        <v>1521.745736331034</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L27" t="n">
-        <v>2074.17820516259</v>
+        <v>585.971282085385</v>
       </c>
       <c r="M27" t="n">
-        <v>2782.313675454929</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="N27" t="n">
-        <v>3520.582458534155</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O27" t="n">
-        <v>3798.061577393173</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P27" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q27" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R27" t="n">
-        <v>3794.236775028933</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S27" t="n">
-        <v>3665.317021885014</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T27" t="n">
-        <v>3489.637587679143</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U27" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V27" t="n">
-        <v>3057.055732896347</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W27" t="n">
-        <v>2826.938487029634</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X27" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y27" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>621.4239831991666</v>
+        <v>487.5980447184141</v>
       </c>
       <c r="C28" t="n">
-        <v>621.4239831991666</v>
+        <v>487.5980447184141</v>
       </c>
       <c r="D28" t="n">
-        <v>465.7908701016814</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="E28" t="n">
-        <v>465.7908701016814</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="F28" t="n">
-        <v>465.7908701016814</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G28" t="n">
-        <v>353.9632093308679</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H28" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6405,31 +6405,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T28" t="n">
-        <v>1110.515389561699</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U28" t="n">
-        <v>1110.515389561699</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V28" t="n">
-        <v>844.5360443825233</v>
+        <v>721.6783669354311</v>
       </c>
       <c r="W28" t="n">
-        <v>844.5360443825233</v>
+        <v>721.6783669354311</v>
       </c>
       <c r="X28" t="n">
-        <v>844.5360443825233</v>
+        <v>487.5980447184141</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.4239831991666</v>
+        <v>487.5980447184141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.0502608361</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="C29" t="n">
-        <v>1181.87475933903</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D29" t="n">
-        <v>796.4336305556981</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E29" t="n">
-        <v>393.8501056722426</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F29" t="n">
-        <v>393.8501056722426</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G29" t="n">
-        <v>393.8501056722426</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K29" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M29" t="n">
         <v>1942.267504401619</v>
@@ -6493,22 +6493,22 @@
         <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3730.298508491525</v>
+        <v>3708.001712059515</v>
       </c>
       <c r="U29" t="n">
-        <v>3474.594165022033</v>
+        <v>3708.001712059515</v>
       </c>
       <c r="V29" t="n">
-        <v>3132.487355725551</v>
+        <v>3365.894902763034</v>
       </c>
       <c r="W29" t="n">
-        <v>2761.488320693839</v>
+        <v>2994.895867731321</v>
       </c>
       <c r="X29" t="n">
-        <v>2372.035715626896</v>
+        <v>2605.443262664378</v>
       </c>
       <c r="Y29" t="n">
-        <v>1975.545006547497</v>
+        <v>2208.952553584979</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.96123154786346</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>677.8675552895655</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U31" t="n">
-        <v>392.4435619429715</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V31" t="n">
-        <v>359.2916336166858</v>
+        <v>721.6783669354311</v>
       </c>
       <c r="W31" t="n">
-        <v>75.96123154786346</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="X31" t="n">
-        <v>75.96123154786346</v>
+        <v>654.4864293565322</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.96123154786346</v>
+        <v>431.3743681731755</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1879.534856752386</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C32" t="n">
-        <v>1486.359355255316</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D32" t="n">
-        <v>1100.918226471984</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E32" t="n">
-        <v>698.3347015885286</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F32" t="n">
-        <v>698.3347015885286</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G32" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I32" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
@@ -6712,40 +6712,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O32" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U32" t="n">
-        <v>3389.626155871376</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V32" t="n">
-        <v>3047.519346574894</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="W32" t="n">
-        <v>2676.520311543182</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="X32" t="n">
-        <v>2676.520311543182</v>
+        <v>3201.48808341005</v>
       </c>
       <c r="Y32" t="n">
-        <v>2280.029602463783</v>
+        <v>2804.99737433065</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K33" t="n">
-        <v>589.997147027437</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L33" t="n">
-        <v>589.997147027437</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M33" t="n">
-        <v>1298.132617319777</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N33" t="n">
-        <v>2036.401400399003</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
-        <v>2036.401400399003</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.4642167637957</v>
+        <v>438.3479648666087</v>
       </c>
       <c r="C34" t="n">
-        <v>126.4642167637957</v>
+        <v>268.1428469325979</v>
       </c>
       <c r="D34" t="n">
-        <v>126.4642167637957</v>
+        <v>268.1428469325979</v>
       </c>
       <c r="E34" t="n">
-        <v>126.4642167637957</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F34" t="n">
-        <v>126.4642167637957</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J34" t="n">
         <v>75.96123154786345</v>
@@ -6864,13 +6864,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6879,31 +6879,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T34" t="n">
-        <v>677.8675552895655</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U34" t="n">
-        <v>392.4435619429715</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V34" t="n">
-        <v>126.4642167637957</v>
+        <v>721.6783669354311</v>
       </c>
       <c r="W34" t="n">
-        <v>126.4642167637957</v>
+        <v>438.3479648666087</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4642167637957</v>
+        <v>438.3479648666087</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4642167637957</v>
+        <v>438.3479648666087</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1982.335120258586</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C35" t="n">
-        <v>1982.335120258586</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D35" t="n">
-        <v>1596.893991475254</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E35" t="n">
-        <v>1194.310466591798</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F35" t="n">
-        <v>777.4160281217761</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O35" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585818</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116325</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="V35" t="n">
-        <v>3168.773180116325</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="W35" t="n">
-        <v>3168.773180116325</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="X35" t="n">
-        <v>2779.320575049382</v>
+        <v>3201.48808341005</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.829865969983</v>
+        <v>2804.99737433065</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K36" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L36" t="n">
-        <v>446.9164895271324</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="M36" t="n">
-        <v>1155.051959819472</v>
+        <v>1336.529170671759</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1336.529170671759</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1928.512430234351</v>
       </c>
       <c r="P36" t="n">
         <v>2352.277072610002</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.2152488624276</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="C37" t="n">
-        <v>311.0101309284169</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="D37" t="n">
-        <v>155.3770178309316</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786345</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786345</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786345</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="H37" t="n">
         <v>75.96123154786345</v>
@@ -7101,13 +7101,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
         <v>1044.49322140544</v>
@@ -7116,31 +7116,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T37" t="n">
-        <v>987.6577121146066</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U37" t="n">
-        <v>987.6577121146066</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V37" t="n">
-        <v>987.6577121146066</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="W37" t="n">
-        <v>704.3273100457843</v>
+        <v>418.9033166991904</v>
       </c>
       <c r="X37" t="n">
-        <v>704.3273100457843</v>
+        <v>184.8229944821735</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.2152488624276</v>
+        <v>184.8229944821735</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1784.738870900629</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C38" t="n">
-        <v>1391.56336940356</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D38" t="n">
-        <v>1006.122240620228</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E38" t="n">
-        <v>603.5387157367721</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F38" t="n">
-        <v>603.5387157367721</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786345</v>
@@ -7177,7 +7177,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L38" t="n">
         <v>1292.177839612517</v>
@@ -7186,40 +7186,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3684.282775086563</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U38" t="n">
-        <v>3684.282775086563</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.175965790081</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W38" t="n">
-        <v>2971.176930758369</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X38" t="n">
-        <v>2581.724325691425</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y38" t="n">
-        <v>2185.233616612026</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>128.7706159442457</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>499.7258739235147</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>1052.15834275507</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>401.7994625793595</v>
+        <v>725.341024409786</v>
       </c>
       <c r="C40" t="n">
-        <v>231.5943446453487</v>
+        <v>555.1359064757752</v>
       </c>
       <c r="D40" t="n">
-        <v>75.96123154786345</v>
+        <v>399.5027933782899</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G40" t="n">
         <v>75.96123154786345</v>
@@ -7338,13 +7338,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7353,31 +7353,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>1222.217555045145</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.217555045145</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="U40" t="n">
-        <v>1222.217555045145</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="V40" t="n">
-        <v>956.2382098659697</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="W40" t="n">
-        <v>672.9078077971474</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="X40" t="n">
-        <v>438.8274855801304</v>
+        <v>1133.661104284444</v>
       </c>
       <c r="Y40" t="n">
-        <v>401.7994625793595</v>
+        <v>910.5490431010872</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.029140173987</v>
+        <v>1629.544743163756</v>
       </c>
       <c r="C41" t="n">
-        <v>1299.853638676918</v>
+        <v>1236.369241666687</v>
       </c>
       <c r="D41" t="n">
-        <v>1299.853638676918</v>
+        <v>850.9281128833543</v>
       </c>
       <c r="E41" t="n">
-        <v>897.2701137934622</v>
+        <v>448.3445879998988</v>
       </c>
       <c r="F41" t="n">
-        <v>480.37567532344</v>
+        <v>448.3445879998988</v>
       </c>
       <c r="G41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J41" t="n">
-        <v>112.6092794722721</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K41" t="n">
-        <v>546.9967664978382</v>
+        <v>502.2052330358746</v>
       </c>
       <c r="L41" t="n">
-        <v>1133.863790997306</v>
+        <v>1089.072257535342</v>
       </c>
       <c r="M41" t="n">
-        <v>1783.953455786408</v>
+        <v>1739.161922324444</v>
       </c>
       <c r="N41" t="n">
-        <v>2417.53776920341</v>
+        <v>2372.746235741447</v>
       </c>
       <c r="O41" t="n">
-        <v>2957.455842746559</v>
+        <v>2912.664309284596</v>
       </c>
       <c r="P41" t="n">
-        <v>3390.887300515424</v>
+        <v>3346.09576705346</v>
       </c>
       <c r="Q41" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="R41" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="S41" t="n">
         <v>3238.15622246312</v>
       </c>
       <c r="T41" t="n">
-        <v>3238.15622246312</v>
+        <v>3017.30324670807</v>
       </c>
       <c r="U41" t="n">
-        <v>3238.15622246312</v>
+        <v>2761.598903238578</v>
       </c>
       <c r="V41" t="n">
-        <v>3238.15622246312</v>
+        <v>2419.492093942096</v>
       </c>
       <c r="W41" t="n">
-        <v>2867.157187431407</v>
+        <v>2419.492093942096</v>
       </c>
       <c r="X41" t="n">
-        <v>2490.014594964783</v>
+        <v>2030.039488875153</v>
       </c>
       <c r="Y41" t="n">
-        <v>2093.523885885384</v>
+        <v>2030.039488875153</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>106.0631456757841</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J42" t="n">
         <v>210.8984035106131</v>
@@ -7496,16 +7496,16 @@
         <v>581.853661489882</v>
       </c>
       <c r="L42" t="n">
-        <v>581.853661489882</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="M42" t="n">
-        <v>1289.989131782222</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="N42" t="n">
-        <v>2028.257914861447</v>
+        <v>1134.286130321438</v>
       </c>
       <c r="O42" t="n">
-        <v>2028.257914861447</v>
+        <v>1603.094873714873</v>
       </c>
       <c r="P42" t="n">
         <v>2069.281934384559</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3329.338682450097</v>
+        <v>714.0144021113979</v>
       </c>
       <c r="C43" t="n">
-        <v>3159.133564516086</v>
+        <v>704.3183557252473</v>
       </c>
       <c r="D43" t="n">
-        <v>3003.5004514186</v>
+        <v>548.685242627762</v>
       </c>
       <c r="E43" t="n">
-        <v>2847.941639277803</v>
+        <v>393.1264304869645</v>
       </c>
       <c r="F43" t="n">
-        <v>2690.615704490775</v>
+        <v>235.8004956999375</v>
       </c>
       <c r="G43" t="n">
-        <v>2522.632954801146</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="H43" t="n">
-        <v>2369.56654483796</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I43" t="n">
-        <v>2244.630977018142</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J43" t="n">
-        <v>2244.630977018142</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K43" t="n">
-        <v>2357.359374365326</v>
+        <v>180.5461433574925</v>
       </c>
       <c r="L43" t="n">
-        <v>2561.019874012511</v>
+        <v>384.2066430046771</v>
       </c>
       <c r="M43" t="n">
-        <v>2788.993310065858</v>
+        <v>612.1800790580246</v>
       </c>
       <c r="N43" t="n">
-        <v>3012.873700399219</v>
+        <v>836.0604693913854</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.162966875719</v>
+        <v>1036.349735867885</v>
       </c>
       <c r="P43" t="n">
-        <v>3365.199164841677</v>
+        <v>1188.385933833843</v>
       </c>
       <c r="Q43" t="n">
-        <v>3390.887300515424</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="R43" t="n">
-        <v>3329.338682450097</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="S43" t="n">
-        <v>3329.338682450097</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="T43" t="n">
-        <v>3329.338682450097</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="U43" t="n">
-        <v>3329.338682450097</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="V43" t="n">
-        <v>3329.338682450097</v>
+        <v>948.0947243284148</v>
       </c>
       <c r="W43" t="n">
-        <v>3329.338682450097</v>
+        <v>948.0947243284148</v>
       </c>
       <c r="X43" t="n">
-        <v>3329.338682450097</v>
+        <v>714.0144021113979</v>
       </c>
       <c r="Y43" t="n">
-        <v>3329.338682450097</v>
+        <v>714.0144021113979</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1659.04045384344</v>
+        <v>2078.470268957319</v>
       </c>
       <c r="C44" t="n">
-        <v>1265.864952346371</v>
+        <v>1685.29476746025</v>
       </c>
       <c r="D44" t="n">
-        <v>880.4238235630387</v>
+        <v>1299.853638676918</v>
       </c>
       <c r="E44" t="n">
-        <v>477.8402986795832</v>
+        <v>897.2701137934622</v>
       </c>
       <c r="F44" t="n">
-        <v>67.81774601030848</v>
+        <v>480.37567532344</v>
       </c>
       <c r="G44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="H44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I44" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J44" t="n">
         <v>262.7798425499286</v>
@@ -7666,34 +7666,34 @@
         <v>3107.626405824216</v>
       </c>
       <c r="P44" t="n">
-        <v>3142.027072252887</v>
+        <v>3142.027072252888</v>
       </c>
       <c r="Q44" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="R44" t="n">
-        <v>3390.887300515424</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="S44" t="n">
-        <v>3238.15622246312</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="T44" t="n">
-        <v>3017.30324670807</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="U44" t="n">
-        <v>2761.598903238578</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="V44" t="n">
-        <v>2419.492093942096</v>
+        <v>3390.887300515425</v>
       </c>
       <c r="W44" t="n">
-        <v>2048.493058910384</v>
+        <v>3264.908328815058</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.04045384344</v>
+        <v>2875.455723748115</v>
       </c>
       <c r="Y44" t="n">
-        <v>1659.04045384344</v>
+        <v>2478.965014668716</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>106.0631456757841</v>
       </c>
       <c r="I45" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J45" t="n">
-        <v>67.81774601030848</v>
+        <v>210.8984035106131</v>
       </c>
       <c r="K45" t="n">
-        <v>67.81774601030848</v>
+        <v>581.853661489882</v>
       </c>
       <c r="L45" t="n">
-        <v>305.7460741382898</v>
+        <v>581.853661489882</v>
       </c>
       <c r="M45" t="n">
-        <v>1013.881544430629</v>
+        <v>1289.989131782222</v>
       </c>
       <c r="N45" t="n">
-        <v>1752.150327509855</v>
+        <v>2028.257914861448</v>
       </c>
       <c r="O45" t="n">
-        <v>2344.133587072447</v>
+        <v>2028.257914861448</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.133587072447</v>
+        <v>2069.281934384559</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.133587072447</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.969674336594</v>
+        <v>1027.589883622445</v>
       </c>
       <c r="C46" t="n">
-        <v>100.969674336594</v>
+        <v>857.3847656884341</v>
       </c>
       <c r="D46" t="n">
-        <v>79.01480847177515</v>
+        <v>701.7516525909489</v>
       </c>
       <c r="E46" t="n">
-        <v>79.01480847177515</v>
+        <v>546.1928404501514</v>
       </c>
       <c r="F46" t="n">
-        <v>79.01480847177515</v>
+        <v>388.8669056631243</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01480847177515</v>
+        <v>220.8841559734953</v>
       </c>
       <c r="H46" t="n">
-        <v>79.01480847177515</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="I46" t="n">
-        <v>79.01480847177515</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="J46" t="n">
-        <v>67.81774601030848</v>
+        <v>67.8177460103085</v>
       </c>
       <c r="K46" t="n">
         <v>180.5461433574925</v>
@@ -7815,10 +7815,10 @@
         <v>384.2066430046771</v>
       </c>
       <c r="M46" t="n">
-        <v>612.1800790580245</v>
+        <v>612.1800790580246</v>
       </c>
       <c r="N46" t="n">
-        <v>836.0604693913853</v>
+        <v>836.0604693913854</v>
       </c>
       <c r="O46" t="n">
         <v>1036.349735867885</v>
@@ -7830,28 +7830,28 @@
         <v>1214.074069507591</v>
       </c>
       <c r="R46" t="n">
-        <v>1102.371904024144</v>
+        <v>1214.074069507591</v>
       </c>
       <c r="S46" t="n">
-        <v>904.2839126825493</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="T46" t="n">
-        <v>669.7240697520105</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="U46" t="n">
-        <v>384.3000764054164</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="V46" t="n">
-        <v>384.3000764054164</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="W46" t="n">
-        <v>100.969674336594</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="X46" t="n">
-        <v>100.969674336594</v>
+        <v>1212.797902313746</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.969674336594</v>
+        <v>1212.797902313746</v>
       </c>
     </row>
   </sheetData>
@@ -7987,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>688.2664872512298</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,19 +8297,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N6" t="n">
-        <v>586.5539326316472</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,16 +8534,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>203.2753887107823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>69.98335850775649</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>61.42255393364716</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>58.96816846528271</v>
       </c>
       <c r="N12" t="n">
-        <v>375.5262874818296</v>
+        <v>145.6823968578456</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.15198862225313</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>69.98335850775649</v>
       </c>
       <c r="K15" t="n">
         <v>68.29893266580339</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>61.42255393364717</v>
       </c>
       <c r="M15" t="n">
-        <v>497.8487433869796</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>51.06865900996808</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>468.8209396580072</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>74.15198862225313</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,25 +9245,25 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K18" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737978</v>
       </c>
       <c r="O18" t="n">
-        <v>296.744267866067</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>52.1760984640634</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>157.8429605695288</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>11.21154561935396</v>
+        <v>164.4207744261538</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>25.90589819983204</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O24" t="n">
-        <v>296.744267866067</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>372.3832158771333</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>160.9577303165244</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660675</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
-        <v>296.744267866067</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737965</v>
       </c>
       <c r="O33" t="n">
-        <v>16.46232962463526</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>344.9722337664982</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L36" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>613.4034677625215</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983202</v>
+        <v>453.9509915085703</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>105.5189109856616</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N39" t="n">
-        <v>2.048060461573968</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>112.1032822162568</v>
+        <v>66.85930902235421</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.83741748749455</v>
+        <v>125.0813906813978</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11144,19 +11144,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463526</v>
+        <v>490.0065148705298</v>
       </c>
       <c r="P42" t="n">
-        <v>67.34430175853007</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11314,7 +11314,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>98.94457935337819</v>
+        <v>98.94457935337863</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>260.8299884677655</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11390,13 +11390,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983202</v>
+        <v>67.34430175852981</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321.400940662965</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>343.5291373148157</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.1281966518506</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>159.2310895204677</v>
@@ -23433,13 +23433,13 @@
         <v>166.4609377894556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.9406481689638</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.25679452515967</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.8608923274312</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.70601523258972</v>
       </c>
       <c r="U13" t="n">
-        <v>143.4447985267601</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>408.7846186869749</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>318.3176568687902</v>
+        <v>32.55052814408526</v>
       </c>
       <c r="I14" t="n">
         <v>127.4501971105622</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.12819665185061</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>159.2310895204677</v>
       </c>
       <c r="T14" t="n">
-        <v>33.2323120883834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1754815281552</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.90334770765124</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>22.25679452515966</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>117.6900996594426</v>
       </c>
       <c r="S16" t="n">
         <v>198.8608923274312</v>
       </c>
       <c r="T16" t="n">
-        <v>232.8894020508675</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5783724456766</v>
+        <v>280.8538492627285</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.28848550455416</v>
+        <v>30.93007048955536</v>
       </c>
       <c r="G17" t="n">
         <v>408.4323500200001</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.5357458635549</v>
@@ -23940,25 +23940,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S19" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>174.2228897550185</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>74.25808899437931</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>95.05192442577987</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.4323500200001</v>
+        <v>186.2151204747587</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I20" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U20" t="n">
         <v>253.1473000347972</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I22" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J22" t="n">
-        <v>11.08509183685202</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>144.2131024927066</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.6175350496171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>111.6813593757954</v>
       </c>
       <c r="H23" t="n">
-        <v>110.9639615836518</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>93.85759358081214</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.8829852077501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>400.7782837588362</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>321.0118622207726</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>64.39500498395284</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24615,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>55.59353802962738</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
@@ -24666,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>151.5590077848683</v>
+        <v>129.4851793171788</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24861,7 +24861,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>230.4991426843612</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>213.9770798450243</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>220.8619593898965</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>133.6360611764987</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>119.4961002276592</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>127.3900586658118</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
         <v>151.5357458635549</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>142.5714461219815</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.59476597048155</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25314,13 +25314,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>75.38159559915204</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,13 +25329,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>43.76260055858798</v>
       </c>
       <c r="I37" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>106.0034317139561</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
         <v>253.1473000347972</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>186.2151204747582</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>108.436225175084</v>
       </c>
       <c r="T40" t="n">
         <v>232.2142445012334</v>
@@ -25608,16 +25608,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.2231978007599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>31.71077645030573</v>
       </c>
       <c r="H41" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>12.18691247431587</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>158.9039808323816</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.65201194393785</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
         <v>196.1071114281788</v>
@@ -25845,13 +25845,13 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.803166942740063</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>242.5698626980327</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>132.3414647603397</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.8437059062728</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638607.8464757032</v>
+        <v>638607.8464757034</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638607.8464757034</v>
+        <v>638607.8464757032</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676712.634842239</v>
+        <v>676712.6348422389</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676712.6348422389</v>
+        <v>676712.6348422386</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676712.634842239</v>
+        <v>676712.6348422387</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638866.6364223065</v>
+        <v>638866.636422307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638866.6364223069</v>
+        <v>638866.6364223068</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>522963.3164707345</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
         <v>522963.3164707346</v>
@@ -26325,34 +26325,34 @@
         <v>388966.0979494561</v>
       </c>
       <c r="F2" t="n">
-        <v>388966.0979494561</v>
+        <v>388966.097949456</v>
       </c>
       <c r="G2" t="n">
+        <v>417575.7268712639</v>
+      </c>
+      <c r="H2" t="n">
+        <v>417575.7268712635</v>
+      </c>
+      <c r="I2" t="n">
+        <v>417575.7268712635</v>
+      </c>
+      <c r="J2" t="n">
+        <v>417575.7268712638</v>
+      </c>
+      <c r="K2" t="n">
+        <v>417575.7268712635</v>
+      </c>
+      <c r="L2" t="n">
         <v>417575.7268712636</v>
       </c>
-      <c r="H2" t="n">
-        <v>417575.7268712637</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>417575.7268712636</v>
-      </c>
-      <c r="J2" t="n">
-        <v>417575.7268712635</v>
-      </c>
-      <c r="K2" t="n">
-        <v>417575.7268712637</v>
-      </c>
-      <c r="L2" t="n">
-        <v>417575.7268712637</v>
-      </c>
-      <c r="M2" t="n">
-        <v>417575.7268712635</v>
       </c>
       <c r="N2" t="n">
         <v>417575.7268712636</v>
       </c>
       <c r="O2" t="n">
-        <v>394777.9405727033</v>
+        <v>394777.9405727035</v>
       </c>
       <c r="P2" t="n">
         <v>394777.9405727035</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125792.451149154</v>
+        <v>125792.4511491539</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.384854840580374e-10</v>
       </c>
       <c r="G3" t="n">
         <v>96028.81230320223</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656035</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>234467.8177985447</v>
       </c>
       <c r="E4" t="n">
-        <v>89275.31101102765</v>
+        <v>89275.31101102766</v>
       </c>
       <c r="F4" t="n">
-        <v>89275.31101102768</v>
+        <v>89275.31101102766</v>
       </c>
       <c r="G4" t="n">
-        <v>86983.77798023679</v>
+        <v>86983.7779802368</v>
       </c>
       <c r="H4" t="n">
         <v>86983.77798023679</v>
@@ -26441,10 +26441,10 @@
         <v>86983.77798023679</v>
       </c>
       <c r="J4" t="n">
+        <v>86983.77798023679</v>
+      </c>
+      <c r="K4" t="n">
         <v>86983.7779802368</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86983.77798023679</v>
       </c>
       <c r="L4" t="n">
         <v>86983.77798023679</v>
@@ -26456,7 +26456,7 @@
         <v>86983.77798023679</v>
       </c>
       <c r="O4" t="n">
-        <v>81321.00707129242</v>
+        <v>81321.00707129244</v>
       </c>
       <c r="P4" t="n">
         <v>81321.00707129244</v>
@@ -26478,10 +26478,10 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
+        <v>52878.24511119562</v>
+      </c>
+      <c r="F5" t="n">
         <v>52878.24511119563</v>
-      </c>
-      <c r="F5" t="n">
-        <v>52878.24511119562</v>
       </c>
       <c r="G5" t="n">
         <v>60977.55903357454</v>
@@ -26493,10 +26493,10 @@
         <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20714.23540327168</v>
+        <v>20714.23540327165</v>
       </c>
       <c r="C6" t="n">
-        <v>218910.0413950168</v>
+        <v>218910.0413950167</v>
       </c>
       <c r="D6" t="n">
-        <v>218910.0413950168</v>
+        <v>218910.0413950167</v>
       </c>
       <c r="E6" t="n">
-        <v>121020.0906780789</v>
+        <v>120558.0313038677</v>
       </c>
       <c r="F6" t="n">
-        <v>246812.5418272329</v>
+        <v>246350.4824530212</v>
       </c>
       <c r="G6" t="n">
-        <v>173585.5775542501</v>
+        <v>173222.1720728729</v>
       </c>
       <c r="H6" t="n">
-        <v>269614.3898574524</v>
+        <v>269250.9843760746</v>
       </c>
       <c r="I6" t="n">
-        <v>269614.3898574523</v>
+        <v>269250.9843760746</v>
       </c>
       <c r="J6" t="n">
-        <v>114874.9554918487</v>
+        <v>114511.5500104715</v>
       </c>
       <c r="K6" t="n">
-        <v>269614.3898574524</v>
+        <v>269250.9843760747</v>
       </c>
       <c r="L6" t="n">
-        <v>269614.3898574524</v>
+        <v>269250.9843760747</v>
       </c>
       <c r="M6" t="n">
-        <v>205740.9876628541</v>
+        <v>205377.5821814767</v>
       </c>
       <c r="N6" t="n">
-        <v>269614.3898574522</v>
+        <v>269250.9843760747</v>
       </c>
       <c r="O6" t="n">
-        <v>258668.4234763781</v>
+        <v>258226.4049387989</v>
       </c>
       <c r="P6" t="n">
-        <v>258668.4234763783</v>
+        <v>258226.4049387989</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812712</v>
+        <v>61.31918088812699</v>
       </c>
       <c r="F3" t="n">
         <v>61.31918088812711</v>
@@ -26755,7 +26755,7 @@
         <v>148.9460117980881</v>
       </c>
       <c r="H3" t="n">
-        <v>148.946011798088</v>
+        <v>148.9460117980881</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26798,40 +26798,40 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
+        <v>847.721825128856</v>
+      </c>
+      <c r="F4" t="n">
         <v>847.7218251288562</v>
       </c>
-      <c r="F4" t="n">
-        <v>847.721825128856</v>
-      </c>
       <c r="G4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="H4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="O4" t="n">
-        <v>847.721825128856</v>
+        <v>847.7218251288562</v>
       </c>
       <c r="P4" t="n">
-        <v>847.721825128856</v>
+        <v>847.7218251288562</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61.31918088812712</v>
+        <v>61.31918088812699</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.751993928205472e-13</v>
       </c>
       <c r="G3" t="n">
         <v>87.62683090996097</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692954</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>183.2804927097759</v>
       </c>
       <c r="D2" t="n">
-        <v>169.4468444728015</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>58.14114400651872</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>165.7080202947459</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27618,25 +27618,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.72363543135066</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>382.2229819043434</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27675,16 +27675,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27824,22 +27824,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>18.74353380020631</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>19.73743940184107</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27858,13 +27858,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.6994464866463</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>39.15096113425426</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2465092699020184</v>
+        <v>0.2465092699020179</v>
       </c>
       <c r="H11" t="n">
-        <v>2.524563060384046</v>
+        <v>2.524563060384041</v>
       </c>
       <c r="I11" t="n">
-        <v>9.503548627897572</v>
+        <v>9.503548627897553</v>
       </c>
       <c r="J11" t="n">
-        <v>20.92216614634645</v>
+        <v>20.92216614634641</v>
       </c>
       <c r="K11" t="n">
-        <v>31.3569035412989</v>
+        <v>31.35690354129883</v>
       </c>
       <c r="L11" t="n">
-        <v>38.9010116100628</v>
+        <v>38.90101161006272</v>
       </c>
       <c r="M11" t="n">
-        <v>43.28487083868282</v>
+        <v>43.28487083868273</v>
       </c>
       <c r="N11" t="n">
-        <v>43.98526530179193</v>
+        <v>43.98526530179184</v>
       </c>
       <c r="O11" t="n">
-        <v>41.53403874920373</v>
+        <v>41.53403874920365</v>
       </c>
       <c r="P11" t="n">
-        <v>35.44834114849765</v>
+        <v>35.44834114849758</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.62022792013161</v>
+        <v>26.62022792013155</v>
       </c>
       <c r="R11" t="n">
-        <v>15.48478792548268</v>
+        <v>15.48478792548264</v>
       </c>
       <c r="S11" t="n">
-        <v>5.61732998789225</v>
+        <v>5.617329987892238</v>
       </c>
       <c r="T11" t="n">
-        <v>1.079094328996086</v>
+        <v>1.079094328996084</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01972074159216147</v>
+        <v>0.01972074159216143</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.13189408719333</v>
+        <v>0.1318940871933298</v>
       </c>
       <c r="H12" t="n">
-        <v>1.273819210525056</v>
+        <v>1.273819210525053</v>
       </c>
       <c r="I12" t="n">
-        <v>4.541090282752811</v>
+        <v>4.541090282752801</v>
       </c>
       <c r="J12" t="n">
-        <v>12.46109882557685</v>
+        <v>12.46109882557683</v>
       </c>
       <c r="K12" t="n">
-        <v>21.29800266752997</v>
+        <v>21.29800266752992</v>
       </c>
       <c r="L12" t="n">
-        <v>28.63779292327107</v>
+        <v>28.63779292327101</v>
       </c>
       <c r="M12" t="n">
-        <v>33.41895358402927</v>
+        <v>33.4189535840292</v>
       </c>
       <c r="N12" t="n">
-        <v>34.30345384419859</v>
+        <v>34.30345384419851</v>
       </c>
       <c r="O12" t="n">
-        <v>31.3809585437569</v>
+        <v>31.38095854375684</v>
       </c>
       <c r="P12" t="n">
-        <v>25.18598582554037</v>
+        <v>25.18598582554031</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.83616453366087</v>
+        <v>16.83616453366083</v>
       </c>
       <c r="R12" t="n">
-        <v>8.189003062757811</v>
+        <v>8.189003062757793</v>
       </c>
       <c r="S12" t="n">
-        <v>2.449874821332247</v>
+        <v>2.449874821332242</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5316257286432906</v>
+        <v>0.5316257286432895</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008677242578508559</v>
+        <v>0.008677242578508541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.110575572093344</v>
+        <v>0.1105755720933437</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9831173591571862</v>
+        <v>0.9831173591571842</v>
       </c>
       <c r="I13" t="n">
-        <v>3.325309022588927</v>
+        <v>3.32530902258892</v>
       </c>
       <c r="J13" t="n">
-        <v>7.817692946999419</v>
+        <v>7.817692946999403</v>
       </c>
       <c r="K13" t="n">
-        <v>12.84687101229941</v>
+        <v>12.84687101229939</v>
       </c>
       <c r="L13" t="n">
-        <v>16.43957187285952</v>
+        <v>16.43957187285949</v>
       </c>
       <c r="M13" t="n">
-        <v>17.33322354186845</v>
+        <v>17.33322354186842</v>
       </c>
       <c r="N13" t="n">
-        <v>16.92107822770237</v>
+        <v>16.92107822770233</v>
       </c>
       <c r="O13" t="n">
-        <v>15.62935449915739</v>
+        <v>15.62935449915736</v>
       </c>
       <c r="P13" t="n">
-        <v>13.37361282845316</v>
+        <v>13.37361282845313</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.259196314107195</v>
+        <v>9.259196314107175</v>
       </c>
       <c r="R13" t="n">
-        <v>4.971879814306174</v>
+        <v>4.971879814306164</v>
       </c>
       <c r="S13" t="n">
-        <v>1.927030651844912</v>
+        <v>1.927030651844908</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4724592625806514</v>
+        <v>0.4724592625806504</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006031394841455133</v>
+        <v>0.006031394841455121</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5987779368767353</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H20" t="n">
-        <v>6.132234546038867</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I20" t="n">
-        <v>23.08438641144036</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J20" t="n">
-        <v>50.82052891999186</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K20" t="n">
-        <v>76.16679898798408</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L20" t="n">
-        <v>94.49164927367549</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M20" t="n">
-        <v>105.1401664086071</v>
+        <v>105.1401664086072</v>
       </c>
       <c r="N20" t="n">
         <v>106.8414442217582</v>
       </c>
       <c r="O20" t="n">
-        <v>100.8873461119401</v>
+        <v>100.8873461119402</v>
       </c>
       <c r="P20" t="n">
-        <v>86.1050157952957</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.66128093089759</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T20" t="n">
-        <v>2.62115041867791</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H21" t="n">
-        <v>3.094142622447074</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I21" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J21" t="n">
-        <v>30.26835886926995</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K21" t="n">
-        <v>51.73344638085101</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L21" t="n">
-        <v>69.5620029628712</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M21" t="n">
-        <v>81.17557642995796</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N21" t="n">
-        <v>83.32405239259266</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O21" t="n">
-        <v>76.2252292642536</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P21" t="n">
-        <v>61.17746661948262</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.89551629595806</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R21" t="n">
-        <v>19.89131833031825</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S21" t="n">
-        <v>5.950814716650022</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T21" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02107726582048416</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2685911688162242</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H22" t="n">
-        <v>2.388019664566068</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I22" t="n">
-        <v>8.077268967673366</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J22" t="n">
-        <v>18.98939563530705</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K22" t="n">
-        <v>31.20541034064859</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L22" t="n">
-        <v>39.93218158927757</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M22" t="n">
-        <v>42.10288658089232</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N22" t="n">
-        <v>41.10177404257733</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O22" t="n">
-        <v>37.96414084322415</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P22" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.49084778151129</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R22" t="n">
-        <v>12.07683564513677</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S22" t="n">
-        <v>4.680811551097289</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T22" t="n">
-        <v>1.147616812214776</v>
+        <v>1.147616812214777</v>
       </c>
       <c r="U22" t="n">
         <v>0.01465042738997589</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I23" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086072</v>
@@ -32727,22 +32727,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M24" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T24" t="n">
         <v>1.291333819268329</v>
@@ -32861,31 +32861,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I25" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K25" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N25" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q25" t="n">
         <v>22.4908477815113</v>
@@ -32894,7 +32894,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T25" t="n">
         <v>1.147616812214777</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,22 +32964,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,40 +33019,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T27" t="n">
         <v>1.291333819268329</v>
@@ -33098,31 +33098,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N28" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
         <v>22.4908477815113</v>
@@ -33131,7 +33131,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,22 +33201,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T30" t="n">
         <v>1.291333819268329</v>
@@ -33335,31 +33335,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N31" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
         <v>22.4908477815113</v>
@@ -33368,7 +33368,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I32" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086072</v>
@@ -33438,22 +33438,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M33" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T33" t="n">
         <v>1.291333819268329</v>
@@ -33572,31 +33572,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I34" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K34" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N34" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q34" t="n">
         <v>22.4908477815113</v>
@@ -33605,7 +33605,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214777</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I35" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086072</v>
@@ -33675,22 +33675,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,40 +33730,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T36" t="n">
         <v>1.291333819268329</v>
@@ -33809,31 +33809,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I37" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K37" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N37" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q37" t="n">
         <v>22.4908477815113</v>
@@ -33842,7 +33842,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214777</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I38" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086072</v>
@@ -33912,22 +33912,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,40 +33967,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T39" t="n">
         <v>1.291333819268329</v>
@@ -34046,31 +34046,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I40" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K40" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N40" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q40" t="n">
         <v>22.4908477815113</v>
@@ -34079,7 +34079,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214777</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I41" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086072</v>
@@ -34149,22 +34149,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,40 +34204,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M42" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T42" t="n">
         <v>1.291333819268329</v>
@@ -34283,31 +34283,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I43" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K43" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N43" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q43" t="n">
         <v>22.4908477815113</v>
@@ -34316,7 +34316,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214777</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,22 +34386,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,40 +34441,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M45" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T45" t="n">
         <v>1.291333819268329</v>
@@ -34520,31 +34520,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N46" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
         <v>22.4908477815113</v>
@@ -34553,7 +34553,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
@@ -34707,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>538.5414356535026</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N6" t="n">
-        <v>501.1818197774805</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>113.215041853864</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>393.9653439730785</v>
       </c>
       <c r="L11" t="n">
-        <v>537.2043365782738</v>
+        <v>537.2043365782737</v>
       </c>
       <c r="M11" t="n">
         <v>594.8009314897743</v>
       </c>
       <c r="N11" t="n">
-        <v>577.1279760467031</v>
+        <v>577.127976046703</v>
       </c>
       <c r="O11" t="n">
         <v>486.01848409499</v>
       </c>
       <c r="P11" t="n">
-        <v>387.1528786550854</v>
+        <v>387.1528786550853</v>
       </c>
       <c r="Q11" t="n">
         <v>213.3329149311907</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.7186566232812</v>
       </c>
       <c r="K12" t="n">
         <v>344.2668370738193</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>517.088384739749</v>
       </c>
       <c r="M12" t="n">
-        <v>667.5317309847173</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.4576284718615</v>
+        <v>94.6137378478774</v>
       </c>
       <c r="O12" t="n">
-        <v>553.1186177265661</v>
+        <v>553.118617726566</v>
       </c>
       <c r="P12" t="n">
         <v>434.9045400845276</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>253.5685802456714</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>95.50852869910939</v>
+        <v>95.50852869910936</v>
       </c>
       <c r="L13" t="n">
         <v>182.2250666948795</v>
@@ -35579,7 +35579,7 @@
         <v>205.5065349946604</v>
       </c>
       <c r="N13" t="n">
-        <v>201.9611126026612</v>
+        <v>201.9611126026611</v>
       </c>
       <c r="O13" t="n">
         <v>179.9776040362362</v>
@@ -35588,7 +35588,7 @@
         <v>134.4606489664113</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.71596032425968</v>
+        <v>12.71596032425966</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.7186566232813</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>517.0883847397491</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>438.880574921697</v>
+        <v>667.5317309847173</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>696.7054449659754</v>
       </c>
       <c r="O15" t="n">
         <v>553.1186177265661</v>
       </c>
       <c r="P15" t="n">
-        <v>434.9045400845276</v>
+        <v>406.9235606642329</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.5685802456715</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L18" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M18" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O18" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>196.9314106460808</v>
+        <v>196.9314106460809</v>
       </c>
       <c r="K20" t="n">
         <v>438.7752394197637</v>
@@ -36129,19 +36129,19 @@
         <v>592.7949742418865</v>
       </c>
       <c r="M20" t="n">
-        <v>656.6562270596986</v>
+        <v>656.6562270596987</v>
       </c>
       <c r="N20" t="n">
-        <v>639.9841549666693</v>
+        <v>639.9841549666694</v>
       </c>
       <c r="O20" t="n">
         <v>545.3717914577264</v>
       </c>
       <c r="P20" t="n">
-        <v>437.8095533018834</v>
+        <v>437.8095533018835</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K21" t="n">
-        <v>119.9794716170465</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L21" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="N21" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q21" t="n">
-        <v>277.6279320079686</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.94761179166377</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>346.4773176773013</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>140.4593864224774</v>
       </c>
       <c r="M27" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414323</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>280.2819382414318</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>20.1072134658057</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P33" t="n">
-        <v>319.0663355666662</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N36" t="n">
-        <v>611.3554073009475</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>428.0450933087383</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>53.34281252159825</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
         <v>374.7022807871404</v>
@@ -37630,19 +37630,19 @@
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.24397319390262</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>438.7752394197637</v>
@@ -37800,7 +37800,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>45.24397319390329</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>374.7022807871404</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>473.5441852458946</v>
       </c>
       <c r="P42" t="n">
-        <v>41.43840355869805</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
         <v>277.6279320079687</v>
@@ -37958,7 +37958,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>545.3717914577264</v>
       </c>
       <c r="P44" t="n">
-        <v>34.74814790774872</v>
+        <v>34.74814790774918</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3316445737185</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143695</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>41.43840355869781</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
